--- a/Template_Project_Documentation_DataMining25.xlsx
+++ b/Template_Project_Documentation_DataMining25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Documents\DataMining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\dev\Data-Mining-SS25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84798A1F-593E-4DA3-BEDC-516D5EEE9443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3467841-9D24-43BB-9F62-684958783E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,9 +325,6 @@
     <t>What are outliers in the data? How should they be handled?</t>
   </si>
   <si>
-    <t>Viele NaN (not a number) Werte,  falsche manuelle Eingaben (typing errors)</t>
-  </si>
-  <si>
     <t>Daten zu Verkaufspreisen, Absatzmengen, Rohstoffkosten</t>
   </si>
   <si>
@@ -341,24 +338,8 @@
     <t>Die Daten müssen bereinigt werden, um konkrete und genauere Aussagen machen zu können</t>
   </si>
   <si>
-    <t>Wir können prüfen, wie viele NaN Werte oder generell Fehlende Inputwerte vorhanden sind. Bei zu wenigen Werten sind Daten nicht aussagekräftig genug.
-Wir können prüfen, wie viele "Duplicates" es gibt in verschiedenen Schreibweisen
--&gt; Standardisierung von den Inputs 
-Ausreißer müssen identifiziert werden und als Input-Errors eingestuft werden wenn sie nicht erklärbar sind
--&gt;  Werte durch z.B. Mean-Value ersetzen</t>
-  </si>
-  <si>
     <t>Die Daten sollten in einem Dataframe gespeichert werden, da sie optimal für Datenexploration Transformation und Modelliierung geeignet ist.
 Fehlende Werte sollten standadisiert als NaN gekennzeichnet sein, um später eine Datenbereinigung zu ermöglichen</t>
-  </si>
-  <si>
-    <t>In Metadaten bis zu 13692 Werte, also quantitativ sehr viele Werte vorhanden.
-Daten von wirtschaftlich schwächeren Ländern sind deutlich mehr im Vergleich zu Ländern mit einer starken wirtschaftlichen Lage
--&gt; speziell zugeschnitten?</t>
-  </si>
-  <si>
-    <t>Die Websites, wo die Daten zur Verfügung gestellt wurden, wie die der GlobalEconomy, verfügen über Dokumentationen
-https://www.theglobaleconomy.com/indicators_list.php</t>
   </si>
   <si>
     <t xml:space="preserve">Sources in Metadata.pkl :
@@ -385,6 +366,33 @@
   <si>
     <t>Wachstumsanalysen, Marktübersicht und Länderprofile, sowie aber auch Risikoanalysen und Daten zu politischen Risiken sind wichtig.
 Unsere Daten zeigen Demographische Informationen und Marktübersichten wie Wachstumstrends, es fehlen aber glaube ich Informationen zu Risikobewertungen und der politischen Lage der einzelnen Länder.</t>
+  </si>
+  <si>
+    <t>Die Websites, wo die Daten zur Verfügung gestellt wurden, wie die der GlobalEconomy, verfügen über Dokumentationen.
+https://www.theglobaleconomy.com/indicators_list.php</t>
+  </si>
+  <si>
+    <t>In Metadaten bis zu 13692 Werte, also quantitativ sehr viele Werte vorhanden.
+Daten sind nicht komplett aktuell, aktuellere Jahre haben nicht viele Datensätze
+Daten von wirtschaftlich schwächeren Ländern sind deutlich mehr im Vergleich zu Ländern mit einer starken wirtschaftlichen Lage
+-&gt; speziell zugeschnitten?</t>
+  </si>
+  <si>
+    <t>Viele NaN (not a number) Werte,  falsche manuelle Eingaben (typing errors)
+-&gt; hier vielleicht falsche Datenrepresentation da  Datensätze zu reicheren Ländern nicht komplett abgedeckt sind -
+Daten können "aufgeschmückt" sein
+Daten sind nicht normalverteilt
+-&gt; später schlecht zum lernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir können prüfen, wie viele NaN Werte oder generell Fehlende Inputwerte vorhanden sind. Bei zu wenigen Werten sind Daten nicht aussagekräftig genug.
+Wir können prüfen, wie viele "Duplicates" es gibt in verschiedenen Schreibweisen
+-&gt; Standardisierung von den Inputs 
+Ausreißer müssen identifiziert werden und als Input-Errors eingestuft werden wenn sie nicht erklärbar sind
+-&gt;  Werte durch z.B. Mean-Value ersetzen
+Daten können auf Standardnormalabweichung überprüft werden 
+schiefe Verteilung sollte aufgelöst werden
+(eher data preperation) </t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="2"/>
@@ -1111,7 +1119,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="6"/>
@@ -1122,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="2"/>
@@ -1133,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="6"/>
@@ -1144,18 +1152,18 @@
         <v>20</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="6"/>
@@ -1166,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="2"/>
@@ -1177,20 +1185,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
@@ -1201,18 +1209,18 @@
         <v>25</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
@@ -1223,7 +1231,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>27</v>
@@ -1838,18 +1846,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2003,6 +2011,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACE62FB-4607-4A05-A730-E16CA4F4001F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ACB4BA-A86F-4382-B898-EC32A40F740B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2014,14 +2030,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACE62FB-4607-4A05-A730-E16CA4F4001F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
